--- a/Tabellozze_ISTAT/Vendite_READY.xlsx
+++ b/Tabellozze_ISTAT/Vendite_READY.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marzio\Documents\GitHub\Advanced_Microeconomics_Project\Tabellozze_ISTAT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marziodecorato/Documents/GitHub/Advanced_Microeconomics_Project/Tabellozze_ISTAT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F4E53B4-926B-478A-A24F-CB7A5A2AE6DF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1630E9C-4C81-0943-A474-A0C68AF0DD25}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="540" yWindow="345" windowWidth="28305" windowHeight="15270" xr2:uid="{87C9734E-9AA1-4FA6-A3B7-0FDC185FF619}"/>
+    <workbookView xWindow="500" yWindow="500" windowWidth="28300" windowHeight="15280" xr2:uid="{87C9734E-9AA1-4FA6-A3B7-0FDC185FF619}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Data</t>
   </si>
@@ -47,6 +47,12 @@
   </si>
   <si>
     <t>Time</t>
+  </si>
+  <si>
+    <t>Time2</t>
+  </si>
+  <si>
+    <t>Time3</t>
   </si>
 </sst>
 </file>
@@ -894,19 +900,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC6298D2-4A23-400D-8057-39C57A31DBDE}">
-  <dimension ref="A1:D37"/>
+  <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -919,8 +925,14 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>43101</v>
       </c>
@@ -933,8 +945,14 @@
       <c r="D2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>43132</v>
       </c>
@@ -947,8 +965,14 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>43160</v>
       </c>
@@ -961,8 +985,14 @@
       <c r="D4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>43191</v>
       </c>
@@ -975,8 +1005,14 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>43221</v>
       </c>
@@ -989,8 +1025,14 @@
       <c r="D6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>43252</v>
       </c>
@@ -1003,8 +1045,14 @@
       <c r="D7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>43282</v>
       </c>
@@ -1017,8 +1065,14 @@
       <c r="D8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>43313</v>
       </c>
@@ -1031,8 +1085,14 @@
       <c r="D9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>43344</v>
       </c>
@@ -1045,8 +1105,14 @@
       <c r="D10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>43374</v>
       </c>
@@ -1059,8 +1125,14 @@
       <c r="D11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>43405</v>
       </c>
@@ -1073,8 +1145,14 @@
       <c r="D12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>43435</v>
       </c>
@@ -1087,8 +1165,14 @@
       <c r="D13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>43466</v>
       </c>
@@ -1101,8 +1185,14 @@
       <c r="D14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>43497</v>
       </c>
@@ -1115,8 +1205,14 @@
       <c r="D15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>43525</v>
       </c>
@@ -1129,8 +1225,14 @@
       <c r="D16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>43556</v>
       </c>
@@ -1143,8 +1245,14 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>43586</v>
       </c>
@@ -1157,8 +1265,14 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>43617</v>
       </c>
@@ -1171,8 +1285,14 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>43647</v>
       </c>
@@ -1185,8 +1305,14 @@
       <c r="D20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>43678</v>
       </c>
@@ -1199,8 +1325,14 @@
       <c r="D21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>43709</v>
       </c>
@@ -1213,8 +1345,14 @@
       <c r="D22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>43739</v>
       </c>
@@ -1227,8 +1365,14 @@
       <c r="D23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>43770</v>
       </c>
@@ -1241,8 +1385,14 @@
       <c r="D24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>43800</v>
       </c>
@@ -1255,8 +1405,14 @@
       <c r="D25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>43831</v>
       </c>
@@ -1269,8 +1425,14 @@
       <c r="D26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>43862</v>
       </c>
@@ -1283,8 +1445,14 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>43891</v>
       </c>
@@ -1295,10 +1463,16 @@
         <v>56.3</v>
       </c>
       <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>43922</v>
       </c>
@@ -1311,8 +1485,14 @@
       <c r="D29">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>43952</v>
       </c>
@@ -1325,8 +1505,14 @@
       <c r="D30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>43983</v>
       </c>
@@ -1339,8 +1525,14 @@
       <c r="D31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>44013</v>
       </c>
@@ -1353,8 +1545,14 @@
       <c r="D32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>44044</v>
       </c>
@@ -1367,8 +1565,14 @@
       <c r="D33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>44075</v>
       </c>
@@ -1381,8 +1585,14 @@
       <c r="D34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>44105</v>
       </c>
@@ -1395,8 +1605,14 @@
       <c r="D35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>44136</v>
       </c>
@@ -1409,8 +1625,14 @@
       <c r="D36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>44166</v>
       </c>
@@ -1422,6 +1644,12 @@
       </c>
       <c r="D37">
         <v>0</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1437,9 +1665,9 @@
       <selection activeCell="A9" sqref="A9:AJ11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>94.4</v>
       </c>
@@ -1549,7 +1777,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>94.4</v>
       </c>
@@ -1659,7 +1887,7 @@
         <v>120.9</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>43101</v>
       </c>
@@ -1769,7 +1997,7 @@
         <v>44166</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>94.4</v>
       </c>
@@ -1879,7 +2107,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>94.4</v>
       </c>

--- a/Tabellozze_ISTAT/Vendite_READY.xlsx
+++ b/Tabellozze_ISTAT/Vendite_READY.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marziodecorato/Documents/GitHub/Advanced_Microeconomics_Project/Tabellozze_ISTAT/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marzio\Documents\GitHub\Advanced_Microeconomics_Project\Tabellozze_ISTAT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1630E9C-4C81-0943-A474-A0C68AF0DD25}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{478DF5C9-E4E3-4B64-A398-56B93198EDA8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="500" yWindow="500" windowWidth="28300" windowHeight="15280" xr2:uid="{87C9734E-9AA1-4FA6-A3B7-0FDC185FF619}"/>
+    <workbookView xWindow="0" yWindow="1485" windowWidth="28800" windowHeight="14115" xr2:uid="{87C9734E-9AA1-4FA6-A3B7-0FDC185FF619}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Data</t>
   </si>
@@ -53,6 +53,9 @@
   </si>
   <si>
     <t>Time3</t>
+  </si>
+  <si>
+    <t>Month</t>
   </si>
 </sst>
 </file>
@@ -900,19 +903,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC6298D2-4A23-400D-8057-39C57A31DBDE}">
-  <dimension ref="A1:F37"/>
+  <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="G2" sqref="G2:G37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -931,8 +934,11 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>43101</v>
       </c>
@@ -951,8 +957,11 @@
       <c r="F2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>43132</v>
       </c>
@@ -971,8 +980,11 @@
       <c r="F3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>43160</v>
       </c>
@@ -991,8 +1003,11 @@
       <c r="F4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>43191</v>
       </c>
@@ -1011,8 +1026,11 @@
       <c r="F5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>43221</v>
       </c>
@@ -1031,8 +1049,11 @@
       <c r="F6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>43252</v>
       </c>
@@ -1051,8 +1072,11 @@
       <c r="F7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>43282</v>
       </c>
@@ -1071,8 +1095,11 @@
       <c r="F8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>43313</v>
       </c>
@@ -1091,8 +1118,11 @@
       <c r="F9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>43344</v>
       </c>
@@ -1111,8 +1141,11 @@
       <c r="F10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>43374</v>
       </c>
@@ -1131,8 +1164,11 @@
       <c r="F11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>43405</v>
       </c>
@@ -1151,8 +1187,11 @@
       <c r="F12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>43435</v>
       </c>
@@ -1171,8 +1210,11 @@
       <c r="F13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>43466</v>
       </c>
@@ -1191,8 +1233,11 @@
       <c r="F14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>43497</v>
       </c>
@@ -1211,8 +1256,11 @@
       <c r="F15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>43525</v>
       </c>
@@ -1231,8 +1279,11 @@
       <c r="F16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G16">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>43556</v>
       </c>
@@ -1251,8 +1302,11 @@
       <c r="F17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G17">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>43586</v>
       </c>
@@ -1271,8 +1325,11 @@
       <c r="F18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G18">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>43617</v>
       </c>
@@ -1291,8 +1348,11 @@
       <c r="F19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G19">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>43647</v>
       </c>
@@ -1311,8 +1371,11 @@
       <c r="F20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G20">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>43678</v>
       </c>
@@ -1331,8 +1394,11 @@
       <c r="F21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G21">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>43709</v>
       </c>
@@ -1351,8 +1417,11 @@
       <c r="F22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G22">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>43739</v>
       </c>
@@ -1371,8 +1440,11 @@
       <c r="F23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G23">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>43770</v>
       </c>
@@ -1391,8 +1463,11 @@
       <c r="F24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G24">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>43800</v>
       </c>
@@ -1411,8 +1486,11 @@
       <c r="F25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>43831</v>
       </c>
@@ -1431,8 +1509,11 @@
       <c r="F26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G26">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>43862</v>
       </c>
@@ -1451,8 +1532,11 @@
       <c r="F27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G27">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>43891</v>
       </c>
@@ -1471,8 +1555,11 @@
       <c r="F28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G28">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>43922</v>
       </c>
@@ -1491,8 +1578,11 @@
       <c r="F29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G29">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>43952</v>
       </c>
@@ -1511,8 +1601,11 @@
       <c r="F30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G30">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>43983</v>
       </c>
@@ -1531,8 +1624,11 @@
       <c r="F31">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G31">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>44013</v>
       </c>
@@ -1551,8 +1647,11 @@
       <c r="F32">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G32">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>44044</v>
       </c>
@@ -1571,8 +1670,11 @@
       <c r="F33">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G33">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>44075</v>
       </c>
@@ -1591,8 +1693,11 @@
       <c r="F34">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G34">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>44105</v>
       </c>
@@ -1611,8 +1716,11 @@
       <c r="F35">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G35">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>44136</v>
       </c>
@@ -1631,8 +1739,11 @@
       <c r="F36">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G36">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>44166</v>
       </c>
@@ -1650,6 +1761,9 @@
       </c>
       <c r="F37">
         <v>1</v>
+      </c>
+      <c r="G37">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -1665,9 +1779,9 @@
       <selection activeCell="A9" sqref="A9:AJ11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>94.4</v>
       </c>
@@ -1777,7 +1891,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>94.4</v>
       </c>
@@ -1887,7 +2001,7 @@
         <v>120.9</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>43101</v>
       </c>
@@ -1997,7 +2111,7 @@
         <v>44166</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>94.4</v>
       </c>
@@ -2107,7 +2221,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>94.4</v>
       </c>

--- a/Tabellozze_ISTAT/Vendite_READY.xlsx
+++ b/Tabellozze_ISTAT/Vendite_READY.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marzio\Documents\GitHub\Advanced_Microeconomics_Project\Tabellozze_ISTAT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{478DF5C9-E4E3-4B64-A398-56B93198EDA8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8305B9CF-147F-46C2-9B90-53B4359D06A5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1485" windowWidth="28800" windowHeight="14115" xr2:uid="{87C9734E-9AA1-4FA6-A3B7-0FDC185FF619}"/>
+    <workbookView minimized="1" xWindow="0" yWindow="1170" windowWidth="28800" windowHeight="14115" xr2:uid="{87C9734E-9AA1-4FA6-A3B7-0FDC185FF619}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -200,6 +200,7 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="33">
@@ -906,7 +907,7 @@
   <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G37"/>
+      <selection activeCell="A37" sqref="A1:A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
